--- a/travelingSalesMan/data/cqm_gr17_30sec_2.xlsx
+++ b/travelingSalesMan/data/cqm_gr17_30sec_2.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[4, 1, 2, 11, 8, 3, 15, 0, 12, 5, 6, 16, 7, 13, 14, 10, 9]</t>
+          <t>[7, 5, 2, 1, 10, 4, 9, 14, 13, 8, 15, 11, 0, 6, 12, 3, 16]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2743</v>
+        <v>2655</v>
       </c>
       <c r="E2" t="n">
-        <v>-658</v>
+        <v>-570</v>
       </c>
       <c r="F2" t="n">
-        <v>-13563.18120805371</v>
+        <v>-13564.36241610738</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[4, 1, 2, 11, 8, 3, 15, 0, 12, 5, 6, 16, 7, 13, 14, 10, 9]</t>
+          <t>[7, 5, 2, 1, 10, 4, 9, 14, 13, 8, 15, 11, 0, 6, 12, 3, 16]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2743</v>
+        <v>2655</v>
       </c>
       <c r="E3" t="n">
-        <v>-658</v>
+        <v>-570</v>
       </c>
       <c r="F3" t="n">
-        <v>-13563.18120805369</v>
+        <v>-13564.36241610738</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[4, 1, 2, 11, 8, 3, 15, 0, 12, 5, 6, 16, 7, 13, 14, 10, 9]</t>
+          <t>[7, 5, 2, 1, 10, 4, 9, 14, 13, 8, 15, 11, 0, 6, 12, 3, 16]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2743</v>
+        <v>2655</v>
       </c>
       <c r="E4" t="n">
-        <v>-658</v>
+        <v>-570</v>
       </c>
       <c r="F4" t="n">
-        <v>-13563.18120805369</v>
+        <v>-13564.36241610738</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[4, 1, 2, 11, 8, 3, 15, 0, 12, 5, 6, 16, 7, 13, 14, 10, 9]</t>
+          <t>[8, 11, 15, 7, 6, 16, 13, 3, 0, 4, 10, 9, 1, 2, 14, 5, 12]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2743</v>
+        <v>2782</v>
       </c>
       <c r="E5" t="n">
-        <v>-658</v>
+        <v>-697</v>
       </c>
       <c r="F5" t="n">
-        <v>-13563.18120805369</v>
+        <v>-13562.6577181208</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[4, 1, 2, 11, 8, 3, 15, 0, 12, 5, 6, 16, 7, 13, 14, 10, 9]</t>
+          <t>[14, 16, 6, 3, 2, 7, 13, 12, 0, 15, 11, 8, 4, 1, 9, 10, 5]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2743</v>
+        <v>2801</v>
       </c>
       <c r="E6" t="n">
-        <v>-658</v>
+        <v>-716</v>
       </c>
       <c r="F6" t="n">
-        <v>-13563.18120805369</v>
+        <v>-13562.40268456381</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[5, 0, 3, 12, 7, 8, 15, 11, 6, 16, 10, 14, 1, 9, 4, 2, 13]</t>
+          <t>[14, 16, 6, 3, 2, 7, 13, 12, 0, 15, 11, 8, 4, 1, 9, 10, 5]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2901</v>
+        <v>2801</v>
       </c>
       <c r="E7" t="n">
-        <v>-816</v>
+        <v>-716</v>
       </c>
       <c r="F7" t="n">
-        <v>-13561.06040268456</v>
+        <v>-13562.40268456376</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[14, 2, 13, 12, 4, 1, 9, 10, 6, 7, 5, 3, 16, 11, 8, 15, 0]</t>
+          <t>[14, 16, 6, 3, 2, 7, 13, 12, 0, 15, 11, 8, 4, 1, 9, 10, 5]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2959</v>
+        <v>2801</v>
       </c>
       <c r="E8" t="n">
-        <v>-874</v>
+        <v>-716</v>
       </c>
       <c r="F8" t="n">
-        <v>-13560.28187919463</v>
+        <v>-13562.40268456376</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[14, 2, 13, 12, 4, 1, 9, 10, 6, 7, 5, 0, 16, 3, 8, 15, 11]</t>
+          <t>[14, 16, 6, 3, 2, 7, 13, 12, 0, 15, 11, 8, 4, 1, 9, 10, 5]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2980</v>
+        <v>2801</v>
       </c>
       <c r="E9" t="n">
-        <v>-895</v>
+        <v>-716</v>
       </c>
       <c r="F9" t="n">
-        <v>-13560</v>
+        <v>-13562.40268456376</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[14, 2, 13, 12, 4, 1, 9, 10, 6, 7, 5, 0, 16, 3, 8, 15, 11]</t>
+          <t>[14, 16, 6, 3, 2, 7, 13, 12, 0, 15, 11, 8, 4, 1, 9, 10, 5]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2980</v>
+        <v>2801</v>
       </c>
       <c r="E10" t="n">
-        <v>-895</v>
+        <v>-716</v>
       </c>
       <c r="F10" t="n">
-        <v>-13560</v>
+        <v>-13562.40268456376</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[14, 2, 13, 12, 4, 1, 9, 10, 6, 7, 5, 0, 16, 3, 8, 15, 11]</t>
+          <t>[8, 11, 4, 1, 9, 2, 14, 3, 12, 10, 13, 16, 5, 7, 6, 0, 15]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2980</v>
+        <v>2806</v>
       </c>
       <c r="E11" t="n">
-        <v>-895</v>
+        <v>-721</v>
       </c>
       <c r="F11" t="n">
-        <v>-13559.99999999998</v>
+        <v>-13562.3355704698</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[0, 3, 12, 4, 5, 6, 7, 13, 14, 9, 1, 2, 10, 16, 8, 11, 15]</t>
+          <t>[8, 11, 4, 1, 9, 2, 14, 3, 12, 10, 13, 16, 5, 7, 6, 0, 15]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2989</v>
+        <v>2806</v>
       </c>
       <c r="E12" t="n">
-        <v>-904</v>
+        <v>-721</v>
       </c>
       <c r="F12" t="n">
-        <v>-13559.87919463088</v>
+        <v>-13562.3355704698</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[0, 3, 12, 4, 5, 6, 7, 13, 14, 9, 1, 2, 10, 16, 8, 11, 15]</t>
+          <t>[15, 3, 0, 12, 5, 7, 13, 16, 6, 4, 10, 9, 1, 14, 2, 11, 8]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2989</v>
+        <v>2810</v>
       </c>
       <c r="E13" t="n">
-        <v>-904</v>
+        <v>-725</v>
       </c>
       <c r="F13" t="n">
-        <v>-13559.87919463088</v>
+        <v>-13562.28187919463</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[0, 3, 12, 4, 5, 6, 7, 13, 14, 9, 1, 2, 10, 16, 8, 11, 15]</t>
+          <t>[15, 3, 0, 12, 5, 7, 13, 16, 6, 9, 4, 1, 10, 14, 2, 11, 8]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2989</v>
+        <v>2824</v>
       </c>
       <c r="E14" t="n">
-        <v>-904</v>
+        <v>-739</v>
       </c>
       <c r="F14" t="n">
-        <v>-13559.87919463088</v>
+        <v>-13562.09395973157</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0, 3, 12, 4, 5, 6, 7, 13, 14, 9, 1, 2, 10, 16, 8, 11, 15]</t>
+          <t>[15, 3, 0, 12, 5, 7, 13, 16, 6, 9, 4, 1, 10, 14, 2, 11, 8]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2989</v>
+        <v>2824</v>
       </c>
       <c r="E15" t="n">
-        <v>-904</v>
+        <v>-739</v>
       </c>
       <c r="F15" t="n">
-        <v>-13559.87919463088</v>
+        <v>-13562.09395973154</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[0, 3, 12, 4, 5, 6, 7, 13, 14, 9, 1, 2, 10, 16, 8, 11, 15]</t>
+          <t>[15, 3, 0, 12, 5, 7, 13, 16, 6, 9, 4, 1, 10, 14, 2, 11, 8]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2989</v>
+        <v>2824</v>
       </c>
       <c r="E16" t="n">
-        <v>-904</v>
+        <v>-739</v>
       </c>
       <c r="F16" t="n">
-        <v>-13559.87919463087</v>
+        <v>-13562.09395973154</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[3, 13, 9, 14, 4, 1, 10, 2, 0, 16, 7, 5, 8, 15, 11, 6, 12]</t>
+          <t>[1, 8, 11, 15, 0, 13, 14, 5, 12, 3, 2, 6, 16, 7, 10, 4, 9]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3018</v>
+        <v>2839</v>
       </c>
       <c r="E17" t="n">
-        <v>-933</v>
+        <v>-754</v>
       </c>
       <c r="F17" t="n">
-        <v>-13559.4899328859</v>
+        <v>-13561.89261744967</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[3, 13, 9, 14, 4, 1, 10, 2, 0, 16, 7, 5, 8, 15, 11, 6, 12]</t>
+          <t>[1, 8, 11, 15, 0, 13, 14, 5, 12, 3, 2, 6, 16, 7, 10, 4, 9]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3018</v>
+        <v>2839</v>
       </c>
       <c r="E18" t="n">
-        <v>-933</v>
+        <v>-754</v>
       </c>
       <c r="F18" t="n">
-        <v>-13559.4899328859</v>
+        <v>-13561.89261744967</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[5, 0, 3, 15, 11, 8, 16, 12, 6, 14, 10, 1, 9, 7, 4, 2, 13]</t>
+          <t>[1, 8, 11, 15, 0, 13, 14, 5, 12, 3, 2, 6, 16, 7, 10, 4, 9]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3045</v>
+        <v>2839</v>
       </c>
       <c r="E19" t="n">
-        <v>-960</v>
+        <v>-754</v>
       </c>
       <c r="F19" t="n">
-        <v>-13559.12751677852</v>
+        <v>-13561.89261744966</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[5, 0, 3, 15, 11, 8, 16, 12, 6, 14, 10, 1, 9, 7, 4, 2, 13]</t>
+          <t>[15, 14, 10, 4, 1, 9, 6, 5, 16, 0, 12, 3, 13, 2, 7, 8, 11]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3045</v>
+        <v>2871</v>
       </c>
       <c r="E20" t="n">
-        <v>-960</v>
+        <v>-786</v>
       </c>
       <c r="F20" t="n">
-        <v>-13559.12751677851</v>
+        <v>-13561.46308724832</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 12, 7, 0, 15, 11, 8, 16, 6, 14, 1, 9, 10, 13, 4]</t>
+          <t>[15, 14, 10, 4, 1, 9, 6, 5, 0, 16, 12, 3, 13, 2, 7, 8, 11]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3062</v>
+        <v>2971</v>
       </c>
       <c r="E21" t="n">
-        <v>-977</v>
+        <v>-886</v>
       </c>
       <c r="F21" t="n">
-        <v>-13558.8993288591</v>
+        <v>-13560.12080536909</v>
       </c>
     </row>
     <row r="22">
@@ -909,17 +909,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 12, 7, 0, 15, 11, 8, 16, 6, 14, 1, 9, 10, 13, 4]</t>
+          <t>[11, 9, 1, 2, 14, 13, 4, 10, 7, 16, 12, 5, 6, 0, 15, 3, 8]</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3062</v>
+        <v>2991</v>
       </c>
       <c r="E22" t="n">
-        <v>-977</v>
+        <v>-906</v>
       </c>
       <c r="F22" t="n">
-        <v>-13558.89932885906</v>
+        <v>-13559.8523489933</v>
       </c>
     </row>
     <row r="23">
@@ -931,17 +931,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[2, 3, 5, 12, 7, 0, 15, 11, 8, 16, 6, 14, 1, 9, 10, 13, 4]</t>
+          <t>[1, 4, 0, 13, 2, 10, 3, 8, 11, 15, 12, 5, 7, 16, 6, 14, 9]</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3062</v>
+        <v>2992</v>
       </c>
       <c r="E23" t="n">
-        <v>-977</v>
+        <v>-907</v>
       </c>
       <c r="F23" t="n">
-        <v>-13558.89932885906</v>
+        <v>-13559.83892617455</v>
       </c>
     </row>
     <row r="24">
@@ -953,17 +953,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[7, 6, 5, 4, 14, 0, 16, 3, 12, 13, 2, 10, 9, 1, 15, 11, 8]</t>
+          <t>[8, 11, 3, 7, 6, 16, 13, 15, 0, 9, 1, 10, 4, 2, 14, 5, 12]</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3076</v>
+        <v>3020</v>
       </c>
       <c r="E24" t="n">
-        <v>-991</v>
+        <v>-935</v>
       </c>
       <c r="F24" t="n">
-        <v>-13558.71140939595</v>
+        <v>-13559.46308724832</v>
       </c>
     </row>
     <row r="25">
@@ -975,17 +975,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[12, 15, 8, 6, 3, 0, 11, 2, 14, 10, 9, 1, 4, 7, 5, 13, 16]</t>
+          <t>[8, 11, 3, 7, 6, 16, 13, 15, 0, 9, 1, 10, 4, 2, 14, 5, 12]</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3114</v>
+        <v>3020</v>
       </c>
       <c r="E25" t="n">
-        <v>-1029</v>
+        <v>-935</v>
       </c>
       <c r="F25" t="n">
-        <v>-13558.20134228184</v>
+        <v>-13559.46308724832</v>
       </c>
     </row>
     <row r="26">
@@ -997,17 +997,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[5, 7, 13, 4, 0, 14, 2, 10, 1, 9, 11, 15, 8, 3, 6, 12, 16]</t>
+          <t>[8, 11, 3, 7, 6, 16, 13, 15, 0, 9, 1, 10, 4, 2, 14, 5, 12]</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3125</v>
+        <v>3020</v>
       </c>
       <c r="E26" t="n">
-        <v>-1040</v>
+        <v>-935</v>
       </c>
       <c r="F26" t="n">
-        <v>-13558.05369127517</v>
+        <v>-13559.46308724832</v>
       </c>
     </row>
     <row r="27">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[0, 14, 13, 16, 11, 8, 15, 12, 5, 10, 9, 1, 4, 7, 6, 3, 2]</t>
+          <t>[8, 11, 3, 7, 6, 16, 13, 15, 0, 9, 1, 10, 4, 2, 14, 5, 12]</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3169</v>
+        <v>3020</v>
       </c>
       <c r="E27" t="n">
-        <v>-1084</v>
+        <v>-935</v>
       </c>
       <c r="F27" t="n">
-        <v>-13557.46308724837</v>
+        <v>-13559.46308724827</v>
       </c>
     </row>
     <row r="28">
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[14, 4, 1, 2, 10, 9, 7, 16, 0, 3, 8, 15, 11, 5, 12, 13, 6]</t>
+          <t>[6, 5, 7, 2, 13, 14, 1, 4, 9, 8, 11, 15, 3, 10, 12, 16, 0]</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3178</v>
+        <v>3076</v>
       </c>
       <c r="E28" t="n">
-        <v>-1093</v>
+        <v>-991</v>
       </c>
       <c r="F28" t="n">
-        <v>-13557.34228187922</v>
+        <v>-13558.71140939597</v>
       </c>
     </row>
     <row r="29">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[14, 4, 1, 2, 10, 9, 7, 16, 0, 3, 8, 15, 11, 5, 12, 13, 6]</t>
+          <t>[7, 16, 1, 4, 9, 10, 14, 6, 2, 13, 11, 8, 15, 3, 5, 12, 0]</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3178</v>
+        <v>3080</v>
       </c>
       <c r="E29" t="n">
-        <v>-1093</v>
+        <v>-995</v>
       </c>
       <c r="F29" t="n">
-        <v>-13557.34228187919</v>
+        <v>-13558.65771812082</v>
       </c>
     </row>
     <row r="30">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[6, 7, 13, 0, 16, 8, 11, 15, 1, 10, 2, 4, 9, 14, 12, 5, 3]</t>
+          <t>[7, 12, 6, 1, 10, 9, 2, 5, 16, 0, 8, 11, 15, 3, 13, 14, 4]</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3181</v>
+        <v>3148</v>
       </c>
       <c r="E30" t="n">
-        <v>-1096</v>
+        <v>-1063</v>
       </c>
       <c r="F30" t="n">
-        <v>-13557.30201342279</v>
+        <v>-13557.74496644295</v>
       </c>
     </row>
     <row r="31">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[12, 3, 11, 10, 4, 9, 1, 8, 6, 5, 2, 14, 13, 7, 15, 0, 16]</t>
+          <t>[7, 12, 6, 1, 10, 9, 2, 5, 16, 0, 8, 11, 15, 3, 13, 14, 4]</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3199</v>
+        <v>3148</v>
       </c>
       <c r="E31" t="n">
-        <v>-1114</v>
+        <v>-1063</v>
       </c>
       <c r="F31" t="n">
-        <v>-13557.06040268454</v>
+        <v>-13557.74496644295</v>
       </c>
     </row>
     <row r="32">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[15, 3, 16, 2, 13, 10, 4, 1, 8, 0, 12, 6, 7, 5, 9, 14, 11]</t>
+          <t>[7, 12, 6, 1, 10, 9, 2, 5, 16, 0, 8, 11, 15, 3, 13, 14, 4]</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3208</v>
+        <v>3148</v>
       </c>
       <c r="E32" t="n">
-        <v>-1123</v>
+        <v>-1063</v>
       </c>
       <c r="F32" t="n">
-        <v>-13556.93959731544</v>
+        <v>-13557.74496644295</v>
       </c>
     </row>
     <row r="33">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[15, 3, 16, 2, 13, 10, 4, 1, 8, 0, 12, 6, 7, 5, 9, 14, 11]</t>
+          <t>[0, 4, 10, 13, 5, 6, 16, 12, 2, 14, 1, 9, 3, 7, 8, 11, 15]</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3208</v>
+        <v>3190</v>
       </c>
       <c r="E33" t="n">
-        <v>-1123</v>
+        <v>-1105</v>
       </c>
       <c r="F33" t="n">
-        <v>-13556.93959731544</v>
+        <v>-13557.18120805367</v>
       </c>
     </row>
     <row r="34">
@@ -1173,17 +1173,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[8, 2, 7, 16, 6, 3, 0, 15, 11, 1, 9, 10, 4, 12, 5, 14, 13]</t>
+          <t>[2, 4, 3, 15, 0, 6, 7, 14, 13, 16, 12, 8, 11, 1, 9, 10, 5]</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3239</v>
+        <v>3202</v>
       </c>
       <c r="E34" t="n">
-        <v>-1154</v>
+        <v>-1117</v>
       </c>
       <c r="F34" t="n">
-        <v>-13556.5234899329</v>
+        <v>-13557.02013422814</v>
       </c>
     </row>
     <row r="35">
@@ -1195,17 +1195,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[8, 2, 7, 16, 6, 3, 0, 15, 11, 1, 9, 10, 4, 12, 5, 14, 13]</t>
+          <t>[0, 11, 15, 12, 7, 13, 16, 3, 8, 4, 10, 9, 1, 2, 6, 14, 5]</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3239</v>
+        <v>3209</v>
       </c>
       <c r="E35" t="n">
-        <v>-1154</v>
+        <v>-1124</v>
       </c>
       <c r="F35" t="n">
-        <v>-13556.52348993289</v>
+        <v>-13556.92617449666</v>
       </c>
     </row>
     <row r="36">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[8, 2, 7, 16, 6, 3, 0, 15, 11, 1, 9, 10, 4, 12, 5, 14, 13]</t>
+          <t>[6, 7, 12, 2, 5, 10, 16, 13, 0, 15, 11, 8, 3, 14, 4, 1, 9]</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3239</v>
+        <v>3224</v>
       </c>
       <c r="E36" t="n">
-        <v>-1154</v>
+        <v>-1139</v>
       </c>
       <c r="F36" t="n">
-        <v>-13556.52348993289</v>
+        <v>-13556.72483221479</v>
       </c>
     </row>
     <row r="37">
@@ -1239,17 +1239,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[2, 4, 1, 6, 5, 9, 10, 14, 13, 12, 3, 7, 0, 16, 8, 15, 11]</t>
+          <t>[4, 14, 3, 12, 16, 1, 2, 5, 7, 13, 15, 0, 6, 10, 9, 11, 8]</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3306</v>
+        <v>3891</v>
       </c>
       <c r="E37" t="n">
-        <v>-1221</v>
+        <v>-1806</v>
       </c>
       <c r="F37" t="n">
-        <v>-13555.62416107383</v>
+        <v>-13547.77181208053</v>
       </c>
     </row>
     <row r="38">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[12, 0, 8, 15, 10, 11, 1, 3, 2, 13, 14, 4, 9, 5, 7, 6, 16]</t>
+          <t>[8, 9, 1, 14, 0, 6, 4, 12, 3, 16, 15, 7, 5, 2, 10, 13, 11]</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4068</v>
+        <v>3971</v>
       </c>
       <c r="E38" t="n">
-        <v>-1983</v>
+        <v>-1886</v>
       </c>
       <c r="F38" t="n">
-        <v>-13545.39597315435</v>
+        <v>-13546.69798657718</v>
       </c>
     </row>
     <row r="39">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[4, 1, 3, 16, 8, 11, 9, 13, 15, 6, 12, 2, 7, 14, 0, 5, 10]</t>
+          <t>[5, 12, 2, 3, 14, 9, 1, 4, 15, 16, 0, 13, 10, 11, 7, 8, 6]</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4219</v>
+        <v>4170</v>
       </c>
       <c r="E39" t="n">
-        <v>-2134</v>
+        <v>-2085</v>
       </c>
       <c r="F39" t="n">
-        <v>-13543.36912751677</v>
+        <v>-13544.02684563758</v>
       </c>
     </row>
     <row r="40">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[0, 7, 9, 10, 5, 15, 6, 3, 8, 12, 2, 16, 13, 14, 11, 1, 4]</t>
+          <t>[6, 1, 13, 14, 11, 8, 2, 4, 9, 16, 15, 10, 0, 3, 12, 7, 5]</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4246</v>
+        <v>4279</v>
       </c>
       <c r="E40" t="n">
-        <v>-2161</v>
+        <v>-2194</v>
       </c>
       <c r="F40" t="n">
-        <v>-13543.00671140943</v>
+        <v>-13542.56375838931</v>
       </c>
     </row>
     <row r="41">
@@ -1327,17 +1327,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[14, 1, 5, 9, 7, 0, 2, 10, 16, 6, 15, 11, 4, 12, 8, 3, 13]</t>
+          <t>[5, 13, 4, 9, 14, 11, 10, 2, 8, 1, 16, 15, 7, 12, 3, 6, 0]</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4297</v>
+        <v>4309</v>
       </c>
       <c r="E41" t="n">
-        <v>-2212</v>
+        <v>-2224</v>
       </c>
       <c r="F41" t="n">
-        <v>-13542.322147651</v>
+        <v>-13542.1610738255</v>
       </c>
     </row>
     <row r="42">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[12, 11, 15, 3, 9, 5, 8, 1, 0, 2, 10, 4, 7, 14, 16, 6, 13]</t>
+          <t>[5, 13, 4, 9, 14, 11, 10, 2, 8, 1, 16, 15, 7, 12, 3, 6, 0]</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4315</v>
+        <v>4309</v>
       </c>
       <c r="E42" t="n">
-        <v>-2230</v>
+        <v>-2224</v>
       </c>
       <c r="F42" t="n">
-        <v>-13542.08053691278</v>
+        <v>-13542.1610738255</v>
       </c>
     </row>
     <row r="43">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[8, 6, 3, 11, 10, 16, 7, 5, 13, 14, 12, 4, 9, 2, 15, 0, 1]</t>
+          <t>[5, 13, 4, 9, 14, 11, 10, 2, 8, 1, 16, 15, 7, 12, 3, 6, 0]</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4366</v>
+        <v>4309</v>
       </c>
       <c r="E43" t="n">
-        <v>-2281</v>
+        <v>-2224</v>
       </c>
       <c r="F43" t="n">
-        <v>-13541.39597315433</v>
+        <v>-13542.16107382547</v>
       </c>
     </row>
     <row r="44">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[1, 4, 2, 7, 16, 9, 8, 5, 13, 14, 15, 3, 6, 11, 10, 12, 0]</t>
+          <t>[6, 15, 1, 8, 11, 16, 3, 13, 9, 14, 7, 0, 12, 10, 5, 4, 2]</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4416</v>
+        <v>4366</v>
       </c>
       <c r="E44" t="n">
-        <v>-2331</v>
+        <v>-2281</v>
       </c>
       <c r="F44" t="n">
-        <v>-13540.72483221477</v>
+        <v>-13541.39597315435</v>
       </c>
     </row>
     <row r="45">
@@ -1415,17 +1415,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[1, 4, 2, 7, 16, 9, 8, 5, 13, 14, 15, 3, 6, 11, 10, 12, 0]</t>
+          <t>[15, 0, 14, 9, 5, 2, 16, 3, 13, 4, 11, 12, 6, 8, 10, 7, 1]</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4416</v>
+        <v>4708</v>
       </c>
       <c r="E45" t="n">
-        <v>-2331</v>
+        <v>-2623</v>
       </c>
       <c r="F45" t="n">
-        <v>-13540.72483221477</v>
+        <v>-13536.80536912752</v>
       </c>
     </row>
     <row r="46">
@@ -1437,17 +1437,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[5, 8, 12, 7, 3, 4, 9, 16, 15, 2, 14, 13, 6, 1, 10, 11, 0]</t>
+          <t>[7, 1, 9, 15, 2, 10, 5, 0, 3, 14, 6, 13, 8, 4, 12, 16, 11]</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4426</v>
+        <v>4811</v>
       </c>
       <c r="E46" t="n">
-        <v>-2341</v>
+        <v>-2726</v>
       </c>
       <c r="F46" t="n">
-        <v>-13540.59060402685</v>
+        <v>-13535.42281879195</v>
       </c>
     </row>
     <row r="47">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[11, 0, 12, 3, 14, 15, 2, 9, 13, 5, 16, 7, 10, 1, 8, 6, 4]</t>
+          <t>[10, 15, 1, 6, 5, 4, 9, 2, 3, 11, 13, 8, 16, 14, 0, 12, 7]</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4480</v>
+        <v>4877</v>
       </c>
       <c r="E47" t="n">
-        <v>-2395</v>
+        <v>-2792</v>
       </c>
       <c r="F47" t="n">
-        <v>-13539.86577181208</v>
+        <v>-13534.53691275164</v>
       </c>
     </row>
     <row r="48">
@@ -1481,17 +1481,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[12, 5, 2, 8, 9, 6, 3, 4, 13, 7, 16, 11, 1, 10, 14, 0, 15]</t>
+          <t>[10, 9, 11, 0, 5, 3, 4, 13, 12, 1, 15, 16, 7, 2, 8, 6, 14]</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4517</v>
+        <v>4886</v>
       </c>
       <c r="E48" t="n">
-        <v>-2432</v>
+        <v>-2801</v>
       </c>
       <c r="F48" t="n">
-        <v>-13539.36912751682</v>
+        <v>-13534.41610738253</v>
       </c>
     </row>
     <row r="49">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[12, 5, 14, 9, 11, 3, 8, 0, 15, 10, 7, 6, 1, 16, 2, 4, 13]</t>
+          <t>[3, 2, 5, 6, 10, 16, 8, 1, 11, 7, 4, 13, 9, 15, 14, 0, 12]</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4554</v>
+        <v>5097</v>
       </c>
       <c r="E49" t="n">
-        <v>-2469</v>
+        <v>-3012</v>
       </c>
       <c r="F49" t="n">
-        <v>-13538.87248322148</v>
+        <v>-13531.58389261744</v>
       </c>
     </row>
     <row r="50">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[2, 14, 8, 12, 15, 4, 3, 13, 6, 9, 1, 11, 16, 7, 10, 0, 5]</t>
+          <t>[1, 12, 13, 0, 9, 15, 3, 8, 2, 7, 5, 16, 11, 10, 14, 4, 6]</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4730</v>
+        <v>5118</v>
       </c>
       <c r="E50" t="n">
-        <v>-2645</v>
+        <v>-3033</v>
       </c>
       <c r="F50" t="n">
-        <v>-13536.51006711407</v>
+        <v>-13531.3020134228</v>
       </c>
     </row>
     <row r="51">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[15, 2, 4, 13, 8, 12, 10, 11, 6, 16, 9, 5, 14, 7, 1, 0, 3]</t>
+          <t>[11, 3, 14, 8, 16, 6, 9, 13, 15, 5, 12, 4, 2, 1, 7, 10, 0]</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4976</v>
+        <v>5142</v>
       </c>
       <c r="E51" t="n">
-        <v>-2891</v>
+        <v>-3057</v>
       </c>
       <c r="F51" t="n">
-        <v>-13533.20805369128</v>
+        <v>-13530.97986577182</v>
       </c>
     </row>
     <row r="52">
@@ -1569,17 +1569,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[16, 10, 7, 14, 11, 0, 3, 5, 13, 6, 12, 1, 15, 2, 8, 9, 4]</t>
+          <t>[16, 10, 5, 15, 9, 6, 11, 12, 4, 7, 3, 2, 13, 1, 14, 8, 0]</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5082</v>
+        <v>5201</v>
       </c>
       <c r="E52" t="n">
-        <v>-2997</v>
+        <v>-3116</v>
       </c>
       <c r="F52" t="n">
-        <v>-13531.78523489935</v>
+        <v>-13530.18791946308</v>
       </c>
     </row>
     <row r="53">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[10, 0, 5, 12, 1, 8, 6, 13, 14, 3, 11, 4, 7, 2, 16, 9, 15]</t>
+          <t>[9, 15, 4, 0, 2, 14, 3, 1, 5, 6, 16, 8, 7, 11, 12, 10, 13]</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5269</v>
+        <v>5275</v>
       </c>
       <c r="E53" t="n">
-        <v>-3184</v>
+        <v>-3190</v>
       </c>
       <c r="F53" t="n">
-        <v>-13529.27516778524</v>
+        <v>-13529.19463087248</v>
       </c>
     </row>
     <row r="54">
@@ -1613,17 +1613,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[14, 11, 0, 4, 5, 2, 12, 1, 8, 13, 10, 16, 7, 9, 3, 6, 15]</t>
+          <t>[4, 5, 13, 8, 6, 9, 3, 12, 16, 2, 11, 1, 7, 14, 15, 10, 0]</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5430</v>
+        <v>5634</v>
       </c>
       <c r="E54" t="n">
-        <v>-3345</v>
+        <v>-3549</v>
       </c>
       <c r="F54" t="n">
-        <v>-13527.11409395974</v>
+        <v>-13524.3758389262</v>
       </c>
     </row>
   </sheetData>
